--- a/Techs.xlsx
+++ b/Techs.xlsx
@@ -1436,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7973036-CB7D-4732-AD52-1E2057AA8244}">
   <dimension ref="B4:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H195"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Techs.xlsx
+++ b/Techs.xlsx
@@ -1436,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7973036-CB7D-4732-AD52-1E2057AA8244}">
   <dimension ref="B4:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
